--- a/reference/some data.xlsx
+++ b/reference/some data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\ThreeNodesExampleCalculatorIntegration\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DEF412-83B5-49A0-BE62-7B07FB2AA2F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85A5286-2C67-4202-9CE4-0BE49F431951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24890" windowHeight="14620" tabRatio="839" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12090" yWindow="2640" windowWidth="18440" windowHeight="10510" tabRatio="839" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bolt" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="nail" sheetId="4" r:id="rId4"/>
     <sheet name="overall" sheetId="5" r:id="rId5"/>
     <sheet name="bolt dimension" sheetId="6" r:id="rId6"/>
+    <sheet name="lag_screw" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="120">
   <si>
     <t># design_method=ASD</t>
   </si>
@@ -350,6 +351,54 @@
   </si>
   <si>
     <t>_1_1</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>width across flats</t>
+  </si>
+  <si>
+    <t>head height</t>
+  </si>
+  <si>
+    <t>15/16</t>
+  </si>
+  <si>
+    <t>21/16</t>
+  </si>
+  <si>
+    <t>9/16</t>
+  </si>
+  <si>
+    <t>9/8</t>
+  </si>
+  <si>
+    <t>11/64</t>
+  </si>
+  <si>
+    <t>7/32</t>
+  </si>
+  <si>
+    <t>19/64</t>
+  </si>
+  <si>
+    <t>11/32</t>
+  </si>
+  <si>
+    <t>27/64</t>
+  </si>
+  <si>
+    <t>37/64</t>
+  </si>
+  <si>
+    <t>3/2</t>
+  </si>
+  <si>
+    <t>43/64</t>
+  </si>
+  <si>
+    <t>nominal dia</t>
   </si>
 </sst>
 </file>
@@ -399,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -410,6 +459,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1428,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F96F9A5-5F40-4F1A-8435-B869B0AC3F13}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:W5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1891,4 +1941,388 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE7FD63-5A29-4997-AD1C-516125BD5296}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>0.26</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="C8">
+        <v>4.5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10">
+        <v>1.022</v>
+      </c>
+      <c r="C10">
+        <v>3.5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="5">
+        <f>5/16</f>
+        <v>0.3125</v>
+      </c>
+      <c r="D14" s="5">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="E14" s="5">
+        <f>7/16</f>
+        <v>0.4375</v>
+      </c>
+      <c r="F14" s="5">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="5">
+        <f>5/8</f>
+        <v>0.625</v>
+      </c>
+      <c r="H14" s="5">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="I14" s="5">
+        <f>7/8</f>
+        <v>0.875</v>
+      </c>
+      <c r="J14" s="5">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16">
+        <v>0.26</v>
+      </c>
+      <c r="C16">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="H16">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="I16">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="J16">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>4.5</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/reference/some data.xlsx
+++ b/reference/some data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\ThreeNodesExampleCalculatorIntegration\reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRep\ThreeNodesExampleCalculatorIntegration\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85A5286-2C67-4202-9CE4-0BE49F431951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F93555C-B3EA-451C-8406-7528AA9B27DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12090" yWindow="2640" windowWidth="18440" windowHeight="10510" tabRatio="839" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="20830" windowHeight="14620" tabRatio="839" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bolt" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,19 @@
     <sheet name="overall" sheetId="5" r:id="rId5"/>
     <sheet name="bolt dimension" sheetId="6" r:id="rId6"/>
     <sheet name="lag_screw" sheetId="7" r:id="rId7"/>
+    <sheet name="wood_screw" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="120">
   <si>
     <t># design_method=ASD</t>
   </si>
@@ -405,11 +398,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -417,8 +410,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -462,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -746,97 +746,98 @@
       <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -850,112 +851,113 @@
       <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -969,102 +971,103 @@
       <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1078,102 +1081,103 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1187,15 +1191,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1265,7 +1269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1279,7 +1283,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1293,7 +1297,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1321,7 +1325,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1335,7 +1339,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1419,7 +1423,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1433,7 +1437,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>68</v>
       </c>
@@ -1458,17 +1462,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1478,16 +1483,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F96F9A5-5F40-4F1A-8435-B869B0AC3F13}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="8.54296875" customWidth="1"/>
+    <col min="1" max="10" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
@@ -1514,7 +1519,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>85</v>
       </c>
@@ -1548,6 +1553,9 @@
       <c r="K2" t="s">
         <v>95</v>
       </c>
+      <c r="N2" t="s">
+        <v>79</v>
+      </c>
       <c r="O2">
         <v>0.25</v>
       </c>
@@ -1576,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>86</v>
       </c>
@@ -1610,6 +1618,9 @@
       <c r="K3" t="s">
         <v>96</v>
       </c>
+      <c r="N3" t="s">
+        <v>83</v>
+      </c>
       <c r="O3">
         <v>20</v>
       </c>
@@ -1638,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
@@ -1700,7 +1711,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
@@ -1762,7 +1773,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -1796,8 +1807,38 @@
       <c r="K6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="N6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>0.438</v>
+      </c>
+      <c r="P6">
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="R6">
+        <v>0.625</v>
+      </c>
+      <c r="S6">
+        <v>0.75</v>
+      </c>
+      <c r="T6">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="U6">
+        <v>1.125</v>
+      </c>
+      <c r="V6">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="W6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
@@ -1831,8 +1872,38 @@
       <c r="K7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="N7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="S7">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="U7">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="V7">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="W7">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
@@ -1866,8 +1937,38 @@
       <c r="K8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="N8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="P8">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="R8">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="S8">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="T8">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="U8">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="V8">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="W8">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -1902,7 +2003,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>94</v>
       </c>
@@ -1938,6 +2039,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1947,13 +2049,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE7FD63-5A29-4997-AD1C-516125BD5296}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>119</v>
       </c>
@@ -1970,7 +2072,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>85</v>
       </c>
@@ -1987,7 +2089,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>86</v>
       </c>
@@ -2004,7 +2106,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
@@ -2021,7 +2123,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
@@ -2038,7 +2140,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -2055,7 +2157,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
@@ -2072,7 +2174,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
@@ -2089,7 +2191,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -2106,7 +2208,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>94</v>
       </c>
@@ -2123,7 +2225,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14">
         <f>1/4</f>
         <v>0.25</v>
@@ -2161,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>119</v>
       </c>
@@ -2193,7 +2295,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>104</v>
       </c>
@@ -2225,7 +2327,7 @@
         <v>1.022</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>83</v>
       </c>
@@ -2257,7 +2359,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="42" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
@@ -2289,7 +2391,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
@@ -2322,7 +2424,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E042DA1-415F-43B8-9F85-D1DB3802E2DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reference/some data.xlsx
+++ b/reference/some data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRep\ThreeNodesExampleCalculatorIntegration\reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\ThreeNodesExampleCalculatorIntegration\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F93555C-B3EA-451C-8406-7528AA9B27DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D4A2A8-580B-461D-8568-6B435CE57EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="20830" windowHeight="14620" tabRatio="839" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="18440" windowHeight="10510" tabRatio="839" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bolt" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="123">
   <si>
     <t># design_method=ASD</t>
   </si>
@@ -392,17 +400,26 @@
   </si>
   <si>
     <t>nominal dia</t>
+  </si>
+  <si>
+    <t>groove depth</t>
+  </si>
+  <si>
+    <t>groove width</t>
+  </si>
+  <si>
+    <t>nominal size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -410,13 +427,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -462,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -746,92 +763,92 @@
       <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -851,107 +868,107 @@
       <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -971,97 +988,97 @@
       <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1081,97 +1098,97 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1191,15 +1208,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -1213,7 +1230,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1227,7 +1244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1241,7 +1258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -1255,7 +1272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1269,7 +1286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1283,7 +1300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1297,7 +1314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1311,7 +1328,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1325,7 +1342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1339,7 +1356,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1353,7 +1370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -1367,7 +1384,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1381,7 +1398,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -1395,7 +1412,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1409,7 +1426,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1423,7 +1440,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1437,7 +1454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -1451,7 +1468,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="B19" t="s">
         <v>68</v>
       </c>
@@ -1462,12 +1479,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="B20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
@@ -1487,12 +1504,12 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="10" width="8.5" customWidth="1"/>
+    <col min="1" max="10" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="43.5">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
@@ -1519,7 +1536,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" s="4" t="s">
         <v>85</v>
       </c>
@@ -1584,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" s="5" t="s">
         <v>86</v>
       </c>
@@ -1649,7 +1666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
@@ -1711,7 +1728,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23">
       <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
@@ -1773,7 +1790,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="43.5">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -1838,7 +1855,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="29">
       <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
@@ -1903,7 +1920,7 @@
         <v>0.627</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="29">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
@@ -1968,7 +1985,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -2003,7 +2020,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" s="5" t="s">
         <v>94</v>
       </c>
@@ -2050,12 +2067,12 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="43.5">
       <c r="A1" s="3" t="s">
         <v>119</v>
       </c>
@@ -2072,7 +2089,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>85</v>
       </c>
@@ -2089,7 +2106,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>86</v>
       </c>
@@ -2106,7 +2123,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
@@ -2123,7 +2140,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
@@ -2140,7 +2157,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -2157,7 +2174,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
@@ -2174,7 +2191,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
@@ -2191,7 +2208,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -2208,7 +2225,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
         <v>94</v>
       </c>
@@ -2225,7 +2242,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="B14">
         <f>1/4</f>
         <v>0.25</v>
@@ -2263,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="29">
       <c r="A15" s="3" t="s">
         <v>119</v>
       </c>
@@ -2295,7 +2312,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>104</v>
       </c>
@@ -2327,7 +2344,7 @@
         <v>1.022</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="29">
       <c r="A17" s="3" t="s">
         <v>83</v>
       </c>
@@ -2359,7 +2376,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="43.5">
       <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
@@ -2391,7 +2408,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="29">
       <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
@@ -2432,13 +2449,713 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E042DA1-415F-43B8-9F85-D1DB3802E2DB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:R27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="29">
+      <c r="A1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06</v>
+      </c>
+      <c r="C2">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.112</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.03</v>
+      </c>
+      <c r="F6">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.125</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.151</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F10">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0.108</v>
+      </c>
+      <c r="E11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F11">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.19</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E12">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.216</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.06</v>
+      </c>
+      <c r="F13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0.153</v>
+      </c>
+      <c r="E14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E15">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F15">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>0.191</v>
+      </c>
+      <c r="E16">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F16">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.32</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.09</v>
+      </c>
+      <c r="F17">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>0.372</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0.23</v>
+      </c>
+      <c r="E18">
+        <v>0.106</v>
+      </c>
+      <c r="F18">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="29">
+      <c r="A22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <v>14</v>
+      </c>
+      <c r="O22">
+        <v>16</v>
+      </c>
+      <c r="P22">
+        <v>18</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+      <c r="R22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23">
+        <v>0.06</v>
+      </c>
+      <c r="C23">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D23">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E23">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.112</v>
+      </c>
+      <c r="G23">
+        <v>0.125</v>
+      </c>
+      <c r="H23">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.151</v>
+      </c>
+      <c r="J23">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="L23">
+        <v>0.19</v>
+      </c>
+      <c r="M23">
+        <v>0.216</v>
+      </c>
+      <c r="N23">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="P23">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="Q23">
+        <v>0.32</v>
+      </c>
+      <c r="R23">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="29">
+      <c r="A24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <v>14</v>
+      </c>
+      <c r="L24">
+        <v>13</v>
+      </c>
+      <c r="M24">
+        <v>11</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>9</v>
+      </c>
+      <c r="P24">
+        <v>8</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+      <c r="R24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="29">
+      <c r="A25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C25">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D25">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E25">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F25">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H25">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="I25">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.1</v>
+      </c>
+      <c r="K25">
+        <v>0.108</v>
+      </c>
+      <c r="L25">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M25">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="N25">
+        <v>0.153</v>
+      </c>
+      <c r="O25">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="P25">
+        <v>0.191</v>
+      </c>
+      <c r="Q25">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="R25">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="29">
+      <c r="A26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D26">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E26">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.03</v>
+      </c>
+      <c r="G26">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I26">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J26">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K26">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="L26">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M26">
+        <v>0.06</v>
+      </c>
+      <c r="N26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P26">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="Q26">
+        <v>0.09</v>
+      </c>
+      <c r="R26">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="29">
+      <c r="A27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C27">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D27">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E27">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F27">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G27">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H27">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I27">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J27">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K27">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="L27">
+        <v>0.06</v>
+      </c>
+      <c r="M27">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="N27">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O27">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P27">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="Q27">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="R27">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/reference/some data.xlsx
+++ b/reference/some data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\ThreeNodesExampleCalculatorIntegration\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D4A2A8-580B-461D-8568-6B435CE57EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88D7EE3-0CD8-44EF-B8C8-A602649A136B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="18440" windowHeight="10510" tabRatio="839" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24890" windowHeight="14620" tabRatio="839" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bolt" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="bolt dimension" sheetId="6" r:id="rId6"/>
     <sheet name="lag_screw" sheetId="7" r:id="rId7"/>
     <sheet name="wood_screw" sheetId="8" r:id="rId8"/>
+    <sheet name="paras list" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="171">
   <si>
     <t># design_method=ASD</t>
   </si>
@@ -409,6 +410,150 @@
   </si>
   <si>
     <t>nominal size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    connection_capacity="0.1"      #lbs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    connection_requirement="1"   #lbs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mm_thickness_text="1"       #inch  *IMPORTANT*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sm_thickness_text="1"       #inch  *IMPORTANT*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mm_length="10"                #inch  *IMPORTANT* zl added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mm_width="5"                 #inch  *IMPORTANT* zl added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sm_length="5"                #inch  *IMPORTANT* zl added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sm_width="10"                 #inch  *IMPORTANT* zl added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fastener_types="Bolt"       #Bolt, Lag+Screw, Wood+Screw, Nail  *IMPORTANT*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    class ConnectionBlot():    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        fast_dia="0.5"          #inch *IMPORTANT*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    class ConnectionLagScrew():    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        wash_thickness="0.125"  #inch *IMPORTANT*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        fast_dia="0.25"         #inch *IMPORTANT*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ls_length="2.5"         #inch *IMPORTANT*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    class ConnectionWoodScrew():    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        fast_dia="0.151"        #inch *IMPORTANT*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ls_length="2"           #inch *IMPORTANT*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    class ConnectionNail():</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # ls_length="2"           #inch *IMPORTANT*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        fast_dia="sinker"       #common wire, sinker, box  *IMPORTANT*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        nail_size="7d"          #6 7 8 10 12 16 20 30 40   *IMPORTANT*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    connection_requirement</t>
+  </si>
+  <si>
+    <t>nail size</t>
+  </si>
+  <si>
+    <t>connection capacity</t>
+  </si>
+  <si>
+    <t>connection requirement</t>
+  </si>
+  <si>
+    <t>main member thickness</t>
+  </si>
+  <si>
+    <t>main member length</t>
+  </si>
+  <si>
+    <t>main member width</t>
+  </si>
+  <si>
+    <t>side member thickness</t>
+  </si>
+  <si>
+    <t>side member length</t>
+  </si>
+  <si>
+    <t>side member width</t>
+  </si>
+  <si>
+    <t>fastener type</t>
+  </si>
+  <si>
+    <t>bolt diameter</t>
+  </si>
+  <si>
+    <t>lag screw wash thickness</t>
+  </si>
+  <si>
+    <t>lag screw diameter</t>
+  </si>
+  <si>
+    <t>lag screw length</t>
+  </si>
+  <si>
+    <t>wood screw diameter</t>
+  </si>
+  <si>
+    <t>wood screw length</t>
+  </si>
+  <si>
+    <t>nail type</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>inch</t>
+  </si>
+  <si>
+    <t>must be standard value</t>
+  </si>
+  <si>
+    <t>Bolt, Lag+Screw, Wood+Screw, Nail</t>
+  </si>
+  <si>
+    <t>common wire, sinker, box</t>
+  </si>
+  <si>
+    <t>pound </t>
+  </si>
+  <si>
+    <t>connection capacity requirement</t>
   </si>
 </sst>
 </file>
@@ -2451,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E042DA1-415F-43B8-9F85-D1DB3802E2DB}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:R27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3158,4 +3303,295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A303F9-327E-43F5-B817-BBC04D287BDF}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="68.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>